--- a/uploads/Empregados ativos.xlsx
+++ b/uploads/Empregados ativos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -16,515 +21,515 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ALBERT ABNNER DE MELO OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ALESSANDRO VINICIUS GONCALVES DA SILVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ALEX ADRIAN PERALTA LEGUIZAMON</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ALEX CORREA VIANA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ALEXANDRE SILVA DE BRUM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ANTHONY TOMAZINI SCHMITZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ARIEL FELIPE GOMES DA ROSA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ARTHUR POZSER ALONSO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CANDIDO FRANCISCO PEREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CARLOS ALEXANDRE SILVA SANTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CARLOS EDUARDO DA SILVA CARLOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CARLOS RENE DE SOUSA FERREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DANIEL FERREIRA DOS SANTOS FILHO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DAVI ALVES SOARES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DIOGO HENRIQUE SODRE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">EDER MACIEL LOPES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">EDSON CANZIAN JUNIOR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">EMERSON RODRIGUES BRITO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">FABIO JOSE RAMPI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">FREDSON VINICIUS SANTOS OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">GABRIEL ARGOLO MORBECK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">GABRIEL FARIAS DE LIMA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">GEOVANI MARCELO OLIVEIRA SOARES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">HENRIQUE GARCIA BAVARESCO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">HENRIQUE RIBAS VESELY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">HENRIQUE RICHETTI THEOPHILO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">JEAN CARLOS VILELA VICENTINI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">JEAN LUCCA TEIXEIRA FERREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">JULIO CESAR DE PAULA MUNIZ JUNIOR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">KAYAN MAZULINE SANT ANA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">KELWIN BASTOS LENCINES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">LAILSON GONCALVES TAVARES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">LAURA PIO FIGUR PEREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">LUCAS EVARISTO DA CUNHA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">LUCAS MURILO FIGUEIREDO BATISTA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">LUIS ALBERTO QUEIROZ ROCHA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">MARCIO JONATAN DIAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">MARCO ANTONIO FREITAS GONCALVES DE ALMEI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">MARCOS VINICIUS SILVA ROCHA CALAZANS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">MATHEUS DA SILVA FORTES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">NILTON CESAR BROCHET BATISTA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">RAFAEL CARRILHO DELVAUX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">RAIMUNDO NONATO LIMA NETO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ROGERIO GARCIA ZIMERMANN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">RUAN CASAGRANDE CARVALHO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">SAMUEL MICHELS VALENCIO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">SERGIO ALVES DOS SANTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">THIAGO SOUZA DOS SANTOS TINOCO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">TIAGO DE SOUZA NASCIMENTO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">WENDER JADSON SILVA DOS SANTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">451 YAGO ALVES SANTOS                 08/05/2001 10/07/2024      1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALBERT ABNNER DE MELO OLIVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALESSANDRO VINICIUS GONCALVES DA SILVA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALEX ADRIAN PERALTA LEGUIZAMON</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALEX CORREA VIANA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALEXANDRE SILVA DE BRUM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ANTHONY TOMAZINI SCHMITZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ARIEL FELIPE GOMES DA ROSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ARTHUR POZSER ALONSO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CANDIDO FRANCISCO PEREIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CARLOS ALEXANDRE SILVA SANTOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CARLOS EDUARDO DA SILVA CARLOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CARLOS RENE DE SOUSA FERREIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DANIEL FERREIRA DOS SANTOS FILHO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DAVI ALVES SOARES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DIOGO HENRIQUE SODRE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>EDER MACIEL LOPES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>EDSON CANZIAN JUNIOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>EMERSON RODRIGUES BRITO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>FABIO JOSE RAMPI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>FREDSON VINICIUS SANTOS OLIVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GABRIEL ARGOLO MORBECK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GABRIEL FARIAS DE LIMA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>GEOVANI MARCELO OLIVEIRA SOARES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HENRIQUE GARCIA BAVARESCO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HENRIQUE RIBAS VESELY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HENRIQUE RICHETTI THEOPHILO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JEAN CARLOS VILELA VICENTINI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JEAN LUCCA TEIXEIRA FERREIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JULIO CESAR DE PAULA MUNIZ JUNIOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>KAYAN MAZULINE SANT ANA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>KELWIN BASTOS LENCINES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAILSON GONCALVES TAVARES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAURA PIO FIGUR PEREIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LUCAS EVARISTO DA CUNHA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LUCAS MURILO FIGUEIREDO BATISTA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LUIS ALBERTO QUEIROZ ROCHA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MARCIO JONATAN DIAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MARCO ANTONIO FREITAS GONCALVES DE ALMEI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MARCOS VINICIUS SILVA ROCHA CALAZANS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MATHEUS DA SILVA FORTES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>NILTON CESAR BROCHET BATISTA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>RAFAEL CARRILHO DELVAUX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>RAIMUNDO NONATO LIMA NETO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ROGERIO GARCIA ZIMERMANN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>RUAN CASAGRANDE CARVALHO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>SAMUEL MICHELS VALENCIO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>SERGIO ALVES DOS SANTOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>THIAGO SOUZA DOS SANTOS TINOCO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>TIAGO DE SOUZA NASCIMENTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>WENDER JADSON SILVA DOS SANTOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>451 YAGO ALVES SANTOS                 08/05/2001 10/07/2024      1</t>
     </r>
     <r>
       <rPr>
@@ -549,7 +554,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">Total de empregados:</t>
+      <t>Total de empregados:</t>
     </r>
     <r>
       <rPr>
@@ -565,7 +570,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">51</t>
+      <t>51</t>
     </r>
   </si>
   <si>
@@ -692,19 +697,21 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">24 - Outros motivos de afastamento</t>
-    </r>
+      <t>24 - Outros motivos de afastamento</t>
+    </r>
+  </si>
+  <si>
+    <t>PEDRO BUNDAO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -720,6 +727,18 @@
     <font>
       <sz val="10.5"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -742,33 +761,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,11 +798,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -822,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,9 +884,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,6 +919,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1063,22 +1095,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="4.666667"/>
-    <col min="2" max="2" customWidth="1" width="43.333333"/>
-    <col min="3" max="3" customWidth="1" width="12.222222"/>
-    <col min="4" max="4" customWidth="1" width="15.777778"/>
-    <col min="5" max="5" customWidth="1" width="8"/>
-    <col min="6" max="6" customWidth="1" width="4.666667"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.00" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>431</v>
       </c>
@@ -1086,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="3">
-        <v>37105.000000</v>
+        <v>37105</v>
       </c>
       <c r="D1" s="4">
-        <v>45352.000000</v>
+        <v>45352</v>
       </c>
       <c r="E1" s="5">
         <v>1</v>
@@ -1098,7 +1132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.00" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>407</v>
       </c>
@@ -1106,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>36206.000000</v>
+        <v>36206</v>
       </c>
       <c r="D2" s="4">
-        <v>45264.000000</v>
+        <v>45264</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1118,7 +1152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.00" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>389</v>
       </c>
@@ -1126,10 +1160,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>37407.000000</v>
+        <v>37407</v>
       </c>
       <c r="D3" s="4">
-        <v>45028.000000</v>
+        <v>45028</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -1138,7 +1172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.00" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>196</v>
       </c>
@@ -1146,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>31726.000000</v>
+        <v>31726</v>
       </c>
       <c r="D4" s="4">
-        <v>43375.000000</v>
+        <v>43375</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1158,7 +1192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.00" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>392</v>
       </c>
@@ -1166,10 +1200,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>29752.000000</v>
+        <v>29752</v>
       </c>
       <c r="D5" s="4">
-        <v>45083.000000</v>
+        <v>45083</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1178,7 +1212,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.00" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>404</v>
       </c>
@@ -1186,10 +1220,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>39271.000000</v>
+        <v>39271</v>
       </c>
       <c r="D6" s="4">
-        <v>45202.000000</v>
+        <v>45202</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1198,7 +1232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.00" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>435</v>
       </c>
@@ -1206,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>35980.000000</v>
+        <v>35980</v>
       </c>
       <c r="D7" s="4">
-        <v>45383.000000</v>
+        <v>45383</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1218,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.00" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>402</v>
       </c>
@@ -1226,10 +1260,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>37046.000000</v>
+        <v>37046</v>
       </c>
       <c r="D8" s="4">
-        <v>45182.000000</v>
+        <v>45182</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1238,7 +1272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.00" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -1246,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>20554.000000</v>
+        <v>20554</v>
       </c>
       <c r="D9" s="4">
-        <v>40238.000000</v>
+        <v>40238</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1258,7 +1292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.00" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>436</v>
       </c>
@@ -1266,10 +1300,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>34471.000000</v>
+        <v>34471</v>
       </c>
       <c r="D10" s="4">
-        <v>45387.000000</v>
+        <v>45387</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1278,7 +1312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.00" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>425</v>
       </c>
@@ -1286,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>36872.000000</v>
+        <v>36872</v>
       </c>
       <c r="D11" s="4">
-        <v>45289.000000</v>
+        <v>45289</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1298,7 +1332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.00" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>398</v>
       </c>
@@ -1306,10 +1340,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>37901.000000</v>
+        <v>37901</v>
       </c>
       <c r="D12" s="4">
-        <v>45139.000000</v>
+        <v>45139</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1318,7 +1352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.00" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>445</v>
       </c>
@@ -1326,10 +1360,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>36812.000000</v>
+        <v>36812</v>
       </c>
       <c r="D13" s="4">
-        <v>45440.000000</v>
+        <v>45440</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1338,7 +1372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.00" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>438</v>
       </c>
@@ -1346,10 +1380,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>37286.000000</v>
+        <v>37286</v>
       </c>
       <c r="D14" s="4">
-        <v>45387.000000</v>
+        <v>45387</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1358,7 +1392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.00" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>433</v>
       </c>
@@ -1366,10 +1400,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>33318.000000</v>
+        <v>33318</v>
       </c>
       <c r="D15" s="4">
-        <v>45378.000000</v>
+        <v>45378</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1378,7 +1412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.00" customHeight="1">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>447</v>
       </c>
@@ -1386,10 +1420,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>37126.000000</v>
+        <v>37126</v>
       </c>
       <c r="D16" s="4">
-        <v>45450.000000</v>
+        <v>45450</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1398,7 +1432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.00" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>430</v>
       </c>
@@ -1406,10 +1440,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>38060.000000</v>
+        <v>38060</v>
       </c>
       <c r="D17" s="4">
-        <v>45344.000000</v>
+        <v>45344</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1418,7 +1452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.00" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>437</v>
       </c>
@@ -1426,10 +1460,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>37382.000000</v>
+        <v>37382</v>
       </c>
       <c r="D18" s="4">
-        <v>45387.000000</v>
+        <v>45387</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1438,7 +1472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.00" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30</v>
       </c>
@@ -1446,10 +1480,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>32531.000000</v>
+        <v>32531</v>
       </c>
       <c r="D19" s="4">
-        <v>42005.000000</v>
+        <v>42005</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1458,7 +1492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.00" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>411</v>
       </c>
@@ -1466,10 +1500,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>33572.000000</v>
+        <v>33572</v>
       </c>
       <c r="D20" s="4">
-        <v>45264.000000</v>
+        <v>45264</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1478,7 +1512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.00" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>434</v>
       </c>
@@ -1486,10 +1520,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>35662.000000</v>
+        <v>35662</v>
       </c>
       <c r="D21" s="4">
-        <v>45378.000000</v>
+        <v>45378</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1498,7 +1532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.00" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>440</v>
       </c>
@@ -1506,10 +1540,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>35365.000000</v>
+        <v>35365</v>
       </c>
       <c r="D22" s="4">
-        <v>45398.000000</v>
+        <v>45398</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1518,7 +1552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.00" customHeight="1">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>422</v>
       </c>
@@ -1526,10 +1560,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>34855.000000</v>
+        <v>34855</v>
       </c>
       <c r="D23" s="4">
-        <v>45293.000000</v>
+        <v>45293</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1538,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.00" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>453</v>
       </c>
@@ -1546,10 +1580,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>37218.000000</v>
+        <v>37218</v>
       </c>
       <c r="D24" s="4">
-        <v>45484.000000</v>
+        <v>45484</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1558,7 +1592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.00" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>441</v>
       </c>
@@ -1566,10 +1600,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>39359.000000</v>
+        <v>39359</v>
       </c>
       <c r="D25" s="4">
-        <v>45414.000000</v>
+        <v>45414</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1578,7 +1612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.00" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>284</v>
       </c>
@@ -1586,10 +1620,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>36942.000000</v>
+        <v>36942</v>
       </c>
       <c r="D26" s="4">
-        <v>44245.000000</v>
+        <v>44245</v>
       </c>
       <c r="E26" s="5">
         <v>7</v>
@@ -1598,7 +1632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.00" customHeight="1">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>395</v>
       </c>
@@ -1606,10 +1640,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="3">
-        <v>37005.000000</v>
+        <v>37005</v>
       </c>
       <c r="D27" s="4">
-        <v>45120.000000</v>
+        <v>45120</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1618,7 +1652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.00" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>449</v>
       </c>
@@ -1626,10 +1660,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="3">
-        <v>37517.000000</v>
+        <v>37517</v>
       </c>
       <c r="D28" s="4">
-        <v>45475.000000</v>
+        <v>45475</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -1638,7 +1672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.00" customHeight="1">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>207</v>
       </c>
@@ -1646,10 +1680,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="3">
-        <v>32146.000000</v>
+        <v>32146</v>
       </c>
       <c r="D29" s="4">
-        <v>43452.000000</v>
+        <v>43452</v>
       </c>
       <c r="E29" s="5">
         <v>3</v>
@@ -1658,7 +1692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.00" customHeight="1">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>382</v>
       </c>
@@ -1666,10 +1700,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="3">
-        <v>36852.000000</v>
+        <v>36852</v>
       </c>
       <c r="D30" s="4">
-        <v>45017.000000</v>
+        <v>45017</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -1678,7 +1712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.00" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>443</v>
       </c>
@@ -1686,10 +1720,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="3">
-        <v>33764.000000</v>
+        <v>33764</v>
       </c>
       <c r="D31" s="4">
-        <v>45436.000000</v>
+        <v>45436</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1698,7 +1732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.00" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>454</v>
       </c>
@@ -1706,10 +1740,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="3">
-        <v>35796.000000</v>
+        <v>35796</v>
       </c>
       <c r="D32" s="4">
-        <v>45486.000000</v>
+        <v>45486</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -1718,7 +1752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.00" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>401</v>
       </c>
@@ -1726,10 +1760,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="3">
-        <v>38597.000000</v>
+        <v>38597</v>
       </c>
       <c r="D33" s="4">
-        <v>45182.000000</v>
+        <v>45182</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1738,7 +1772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.00" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>410</v>
       </c>
@@ -1746,10 +1780,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="3">
-        <v>36985.000000</v>
+        <v>36985</v>
       </c>
       <c r="D34" s="4">
-        <v>45264.000000</v>
+        <v>45264</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -1758,7 +1792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.00" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>426</v>
       </c>
@@ -1766,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="3">
-        <v>34934.000000</v>
+        <v>34934</v>
       </c>
       <c r="D35" s="4">
-        <v>45294.000000</v>
+        <v>45294</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -1778,7 +1812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.00" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>439</v>
       </c>
@@ -1786,10 +1820,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="3">
-        <v>31367.000000</v>
+        <v>31367</v>
       </c>
       <c r="D36" s="4">
-        <v>45392.000000</v>
+        <v>45392</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -1798,7 +1832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.00" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>452</v>
       </c>
@@ -1806,10 +1840,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="3">
-        <v>33605.000000</v>
+        <v>33605</v>
       </c>
       <c r="D37" s="4">
-        <v>45483.000000</v>
+        <v>45483</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -1818,7 +1852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.00" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>302</v>
       </c>
@@ -1826,10 +1860,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="3">
-        <v>37352.000000</v>
+        <v>37352</v>
       </c>
       <c r="D38" s="4">
-        <v>44370.000000</v>
+        <v>44370</v>
       </c>
       <c r="E38" s="5">
         <v>7</v>
@@ -1838,7 +1872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.00" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>413</v>
       </c>
@@ -1846,10 +1880,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="3">
-        <v>35230.000000</v>
+        <v>35230</v>
       </c>
       <c r="D39" s="4">
-        <v>45264.000000</v>
+        <v>45264</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -1858,7 +1892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.00" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>429</v>
       </c>
@@ -1866,10 +1900,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="3">
-        <v>34545.000000</v>
+        <v>34545</v>
       </c>
       <c r="D40" s="4">
-        <v>45322.000000</v>
+        <v>45322</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -1878,7 +1912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.00" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>19</v>
       </c>
@@ -1886,10 +1920,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="3">
-        <v>25588.000000</v>
+        <v>25588</v>
       </c>
       <c r="D41" s="4">
-        <v>41641.000000</v>
+        <v>41641</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -1898,7 +1932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.00" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>380</v>
       </c>
@@ -1906,10 +1940,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="3">
-        <v>34707.000000</v>
+        <v>34707</v>
       </c>
       <c r="D42" s="4">
-        <v>45007.000000</v>
+        <v>45007</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -1918,7 +1952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.00" customHeight="1">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>386</v>
       </c>
@@ -1926,10 +1960,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="3">
-        <v>35086.000000</v>
+        <v>35086</v>
       </c>
       <c r="D43" s="4">
-        <v>45027.000000</v>
+        <v>45027</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -1938,7 +1972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.00" customHeight="1">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>450</v>
       </c>
@@ -1946,10 +1980,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="3">
-        <v>23903.000000</v>
+        <v>23903</v>
       </c>
       <c r="D44" s="4">
-        <v>45481.000000</v>
+        <v>45481</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -1958,7 +1992,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.00" customHeight="1">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>444</v>
       </c>
@@ -1966,10 +2000,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="3">
-        <v>37702.000000</v>
+        <v>37702</v>
       </c>
       <c r="D45" s="4">
-        <v>45436.000000</v>
+        <v>45436</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -1978,7 +2012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.00" customHeight="1">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>405</v>
       </c>
@@ -1986,10 +2020,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="3">
-        <v>36317.000000</v>
+        <v>36317</v>
       </c>
       <c r="D46" s="4">
-        <v>45261.000000</v>
+        <v>45261</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
@@ -1998,7 +2032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.00" customHeight="1">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>198</v>
       </c>
@@ -2006,10 +2040,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="3">
-        <v>24987.000000</v>
+        <v>24987</v>
       </c>
       <c r="D47" s="4">
-        <v>43405.000000</v>
+        <v>43405</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -2018,7 +2052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.00" customHeight="1">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>372</v>
       </c>
@@ -2026,10 +2060,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="3">
-        <v>38086.000000</v>
+        <v>38086</v>
       </c>
       <c r="D48" s="4">
-        <v>44910.000000</v>
+        <v>44910</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
@@ -2038,7 +2072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.00" customHeight="1">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>188</v>
       </c>
@@ -2046,10 +2080,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="3">
-        <v>32913.000000</v>
+        <v>32913</v>
       </c>
       <c r="D49" s="4">
-        <v>43340.000000</v>
+        <v>43340</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -2058,7 +2092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.00" customHeight="1">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>367</v>
       </c>
@@ -2066,16 +2100,21 @@
         <v>49</v>
       </c>
       <c r="C50" s="3">
-        <v>33928.000000</v>
+        <v>33928</v>
       </c>
       <c r="D50" s="4">
-        <v>44889.000000</v>
+        <v>44889</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
       </c>
       <c r="F50" s="6">
         <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2084,19 +2123,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="129.333333"/>
+    <col min="1" max="1" width="129.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30.00" customHeight="1">
+    <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2105,19 +2151,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="129.333333"/>
+    <col min="1" max="1" width="129.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="210.00" customHeight="1">
+    <row r="1" spans="1:1" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/Empregados ativos.xlsx
+++ b/uploads/Empregados ativos.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -699,9 +699,6 @@
       </rPr>
       <t>24 - Outros motivos de afastamento</t>
     </r>
-  </si>
-  <si>
-    <t>PEDRO BUNDAO</t>
   </si>
 </sst>
 </file>
@@ -711,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -740,6 +737,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -761,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -790,6 +794,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1096,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="P57" sqref="P55:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2072,7 +2079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>188</v>
       </c>
@@ -2092,7 +2099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>367</v>
       </c>
@@ -2112,10 +2119,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="9" t="s">
-        <v>52</v>
-      </c>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P55" s="10"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P56" s="10"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2124,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="P57" sqref="P55:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2140,10 +2154,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
+    <row r="55" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P55" s="10"/>
+    </row>
+    <row r="56" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P56" s="10"/>
+    </row>
+    <row r="57" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2152,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="P57" sqref="P55:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2168,10 +2186,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
+    <row r="55" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P55" s="10"/>
+    </row>
+    <row r="56" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P56" s="10"/>
+    </row>
+    <row r="57" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
